--- a/Invoice Hector Jic.xlsx
+++ b/Invoice Hector Jic.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_AD4DD1C4A5625FDA4777A846EE91CF64693EDF32" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{D121150A-FFD9-4D72-8893-56C4AB6531F0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Database" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -65,12 +64,15 @@
   </si>
   <si>
     <t>Grid Based Movement</t>
+  </si>
+  <si>
+    <t>prueba 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,23 +392,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -468,6 +470,11 @@
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
